--- a/biology/Botanique/Château_La_Serre/Château_La_Serre.xlsx
+++ b/biology/Botanique/Château_La_Serre/Château_La_Serre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Serre</t>
+          <t>Château_La_Serre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château La Serre, est un domaine viticole situé à Saint-Émilion en Gironde. En AOC Saint-Émilion, il est classé Grand Cru Classé dans les derniers classements des vins de Saint-Émilion de 2006. Les propriétaires sont Luc et Béatrice d'Arfeuille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Serre</t>
+          <t>Château_La_Serre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine et Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Serre est situé très près de Saint-Emilion, à deux cents mètres des remparts de la ville. La propriété tiendrait son nom de son exceptionnelle exposition plein sud.
 La demeure fut construite à la fin du XVIIe siècle par Romain de Labayme, dont la famille fort ancienne comptait des Jurats, des avocats au Parlement de Bordeaux et cinq maires de 1541 à 1728; ce dernier était qualifié de "Sieur de Laserre".
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Serre</t>
+          <t>Château_La_Serre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Le Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Création du vignoble: Début de la culture de la vigne à Saint-Emilion
 Situation : Plateau
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Serre</t>
+          <t>Château_La_Serre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>La Vinification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cuves : Ciment et inox
 Cuvaison : trois semaines
